--- a/JupyterNotebooks/AveragedIntensities-SRP/BetaFiberA-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensities-SRP/BetaFiberA-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>HKL</t>
   </si>
@@ -31,6 +31,18 @@
     <t>Spiral</t>
   </si>
   <si>
+    <t>OffsetF</t>
+  </si>
+  <si>
+    <t>OffsetA</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt5degRes</t>
   </si>
   <si>
@@ -68,6 +80,9 @@
   </si>
   <si>
     <t>1Pair-A</t>
+  </si>
+  <si>
+    <t>1Pair-B</t>
   </si>
   <si>
     <t>2Pairs-A</t>
@@ -449,13 +464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -519,8 +534,11 @@
       <c r="V1" s="1">
         <v>20</v>
       </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -528,67 +546,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="U2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V2" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="W2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -596,67 +617,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.039646974063401</v>
+        <v>1.041455331412104</v>
       </c>
       <c r="D3">
-        <v>0.8815345821325649</v>
+        <v>0.8831340057636887</v>
       </c>
       <c r="E3">
-        <v>1.042579250720461</v>
+        <v>1.041116714697406</v>
       </c>
       <c r="F3">
-        <v>0.970806916426513</v>
+        <v>0.9707853025936599</v>
       </c>
       <c r="G3">
-        <v>1.039646974063401</v>
+        <v>1.041455331412104</v>
       </c>
       <c r="H3">
-        <v>0.8815345821325649</v>
+        <v>0.8831340057636887</v>
       </c>
       <c r="I3">
-        <v>1.038018731988473</v>
+        <v>1.037586455331412</v>
       </c>
       <c r="J3">
-        <v>0.9828674351585014</v>
+        <v>0.9821109510086455</v>
       </c>
       <c r="K3">
-        <v>1.01457492795389</v>
+        <v>1.014891930835735</v>
       </c>
       <c r="L3">
-        <v>0.9262103746397694</v>
+        <v>0.926729106628242</v>
       </c>
       <c r="M3">
-        <v>1.039560518731989</v>
+        <v>1.041368876080692</v>
       </c>
       <c r="N3">
-        <v>1.039646974063401</v>
+        <v>1.041455331412104</v>
       </c>
       <c r="O3">
-        <v>0.962056916426513</v>
+        <v>1.041116714697406</v>
       </c>
       <c r="P3">
-        <v>1.006693083573487</v>
+        <v>0.9621253602305475</v>
       </c>
       <c r="Q3">
-        <v>0.9879202689721422</v>
+        <v>1.005951008645533</v>
       </c>
       <c r="R3">
-        <v>0.9649735830931796</v>
+        <v>0.988568683957733</v>
       </c>
       <c r="S3">
-        <v>0.9879202689721422</v>
+        <v>0.9650120076849182</v>
       </c>
       <c r="T3">
-        <v>0.9836419308357349</v>
+        <v>0.988568683957733</v>
       </c>
       <c r="U3">
-        <v>0.9948429394812681</v>
+        <v>0.9841228386167147</v>
       </c>
       <c r="V3">
-        <v>0.9870298991354467</v>
+        <v>0.9955893371757926</v>
+      </c>
+      <c r="W3">
+        <v>0.9872262247838617</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -664,67 +688,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.004438619396726</v>
+        <v>1.006409659652336</v>
       </c>
       <c r="D4">
-        <v>0.9853700950699444</v>
+        <v>0.9865918703037191</v>
       </c>
       <c r="E4">
-        <v>0.9955377292784596</v>
+        <v>0.9936293589770282</v>
       </c>
       <c r="F4">
-        <v>0.9919275601422951</v>
+        <v>0.9921253238420024</v>
       </c>
       <c r="G4">
-        <v>1.004438619396726</v>
+        <v>1.006409659652336</v>
       </c>
       <c r="H4">
-        <v>0.9853700950699444</v>
+        <v>0.9865918703037191</v>
       </c>
       <c r="I4">
-        <v>0.9975782599683156</v>
+        <v>0.996976657200802</v>
       </c>
       <c r="J4">
-        <v>0.9926425916958285</v>
+        <v>0.9918693483055262</v>
       </c>
       <c r="K4">
-        <v>0.9979015202717492</v>
+        <v>0.9984184709086438</v>
       </c>
       <c r="L4">
-        <v>0.9869222558560017</v>
+        <v>0.9873929450466961</v>
       </c>
       <c r="M4">
-        <v>1.004368627347579</v>
+        <v>1.006341707725596</v>
       </c>
       <c r="N4">
-        <v>1.004438619396726</v>
+        <v>1.006409659652336</v>
       </c>
       <c r="O4">
-        <v>0.990453912174202</v>
+        <v>0.9936293589770282</v>
       </c>
       <c r="P4">
-        <v>0.9937326447103774</v>
+        <v>0.9901106146403736</v>
       </c>
       <c r="Q4">
-        <v>0.9951154812483765</v>
+        <v>0.9928773414095153</v>
       </c>
       <c r="R4">
-        <v>0.9909451281635664</v>
+        <v>0.9955436296443608</v>
       </c>
       <c r="S4">
-        <v>0.9951154812483766</v>
+        <v>0.9907821843742499</v>
       </c>
       <c r="T4">
-        <v>0.9943185009718563</v>
+        <v>0.9955436296443608</v>
       </c>
       <c r="U4">
-        <v>0.99634252465683</v>
+        <v>0.9946890531937712</v>
       </c>
       <c r="V4">
-        <v>0.9940398289599151</v>
+        <v>0.9970331744854841</v>
+      </c>
+      <c r="W4">
+        <v>0.9941767042795941</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -732,67 +759,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.011942772086538</v>
+        <v>1.011916067262956</v>
       </c>
       <c r="D5">
-        <v>0.9804821056930973</v>
+        <v>0.9801031538834761</v>
       </c>
       <c r="E5">
-        <v>0.9945835828181723</v>
+        <v>0.9946524533972687</v>
       </c>
       <c r="F5">
-        <v>0.9905717392500725</v>
+        <v>0.9906515292841976</v>
       </c>
       <c r="G5">
-        <v>1.011942772086538</v>
+        <v>1.011916067262956</v>
       </c>
       <c r="H5">
-        <v>0.9804821056930973</v>
+        <v>0.9801031538834761</v>
       </c>
       <c r="I5">
-        <v>0.9991778032588605</v>
+        <v>0.9990771695106431</v>
       </c>
       <c r="J5">
-        <v>0.9903045968286608</v>
+        <v>0.9900673915601774</v>
       </c>
       <c r="K5">
-        <v>1.000351875998684</v>
+        <v>1.000281442989329</v>
       </c>
       <c r="L5">
-        <v>0.983296227929445</v>
+        <v>0.9832054845227467</v>
       </c>
       <c r="M5">
-        <v>1.011900356554214</v>
+        <v>1.011886419291665</v>
       </c>
       <c r="N5">
-        <v>1.011942772086538</v>
+        <v>1.011916067262956</v>
       </c>
       <c r="O5">
-        <v>0.9875328442556348</v>
+        <v>0.9946524533972687</v>
       </c>
       <c r="P5">
-        <v>0.9925776610341224</v>
+        <v>0.9873778036403724</v>
       </c>
       <c r="Q5">
-        <v>0.9956694868659358</v>
+        <v>0.9926519913407332</v>
       </c>
       <c r="R5">
-        <v>0.9885458092537807</v>
+        <v>0.9955572248479001</v>
       </c>
       <c r="S5">
-        <v>0.9956694868659358</v>
+        <v>0.9884690455216475</v>
       </c>
       <c r="T5">
-        <v>0.9943950499619699</v>
+        <v>0.9955572248479001</v>
       </c>
       <c r="U5">
-        <v>0.9979045943868835</v>
+        <v>0.9943308009569745</v>
       </c>
       <c r="V5">
-        <v>0.9938388379829413</v>
+        <v>0.9978478542181707</v>
+      </c>
+      <c r="W5">
+        <v>0.9937443365513493</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -800,67 +830,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.996802325809013</v>
+        <v>0.9970173681519457</v>
       </c>
       <c r="D6">
-        <v>0.992940589523696</v>
+        <v>0.9929739746736783</v>
       </c>
       <c r="E6">
-        <v>0.9951419543314128</v>
+        <v>0.9948603260594054</v>
       </c>
       <c r="F6">
-        <v>0.9936759536008386</v>
+        <v>0.9937351320484086</v>
       </c>
       <c r="G6">
-        <v>0.996802325809013</v>
+        <v>0.9970173681519457</v>
       </c>
       <c r="H6">
-        <v>0.992940589523696</v>
+        <v>0.9929739746736783</v>
       </c>
       <c r="I6">
-        <v>0.9952098105744964</v>
+        <v>0.9950886557221538</v>
       </c>
       <c r="J6">
-        <v>0.9949238889608516</v>
+        <v>0.9948659995475</v>
       </c>
       <c r="K6">
-        <v>0.9953904636554577</v>
+        <v>0.9955039272415525</v>
       </c>
       <c r="L6">
-        <v>0.9920118960333788</v>
+        <v>0.992017455655422</v>
       </c>
       <c r="M6">
-        <v>0.9967178378190747</v>
+        <v>0.9969315315911926</v>
       </c>
       <c r="N6">
-        <v>0.996802325809013</v>
+        <v>0.9970173681519457</v>
       </c>
       <c r="O6">
-        <v>0.9940412719275544</v>
+        <v>0.9948603260594054</v>
       </c>
       <c r="P6">
-        <v>0.9944089539661257</v>
+        <v>0.9939171503665418</v>
       </c>
       <c r="Q6">
-        <v>0.9949616232213739</v>
+        <v>0.994297729053907</v>
       </c>
       <c r="R6">
-        <v>0.9939194991519825</v>
+        <v>0.9949505562950098</v>
       </c>
       <c r="S6">
-        <v>0.9949616232213739</v>
+        <v>0.9938564775938308</v>
       </c>
       <c r="T6">
-        <v>0.99464020581624</v>
+        <v>0.9949505562950098</v>
       </c>
       <c r="U6">
-        <v>0.9950726298147947</v>
+        <v>0.9946467002333595</v>
       </c>
       <c r="V6">
-        <v>0.9945121103111431</v>
+        <v>0.9951208338170767</v>
+      </c>
+      <c r="W6">
+        <v>0.9945078548875084</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -868,64 +901,351 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9962983116975072</v>
+        <v>1.109340664358711</v>
       </c>
       <c r="D7">
-        <v>0.9957954337404376</v>
+        <v>1.104883257645968</v>
       </c>
       <c r="E7">
-        <v>0.994017129975389</v>
+        <v>0.8676977756775208</v>
       </c>
       <c r="F7">
-        <v>0.993972513494925</v>
+        <v>1.005985211498659</v>
       </c>
       <c r="G7">
-        <v>0.9962983116975072</v>
+        <v>1.109340664358711</v>
       </c>
       <c r="H7">
-        <v>0.9957954337404376</v>
+        <v>1.104883257645968</v>
       </c>
       <c r="I7">
-        <v>0.994290846563595</v>
+        <v>0.9510541042345055</v>
       </c>
       <c r="J7">
-        <v>0.9950973143699271</v>
+        <v>0.9434016496609661</v>
       </c>
       <c r="K7">
-        <v>0.994972304521657</v>
+        <v>1.024405325118131</v>
       </c>
       <c r="L7">
-        <v>0.9934699647258993</v>
+        <v>1.042326744182233</v>
       </c>
       <c r="M7">
-        <v>0.9962117682052745</v>
+        <v>1.109016118179627</v>
       </c>
       <c r="N7">
-        <v>0.9962983116975072</v>
+        <v>1.109340664358711</v>
       </c>
       <c r="O7">
-        <v>0.9949062818579133</v>
+        <v>0.8676977756775208</v>
       </c>
       <c r="P7">
-        <v>0.9939948217351571</v>
+        <v>0.9862905166617443</v>
       </c>
       <c r="Q7">
-        <v>0.9953702918044446</v>
+        <v>0.93684149358809</v>
       </c>
       <c r="R7">
-        <v>0.9945950257369173</v>
+        <v>1.027307232560733</v>
       </c>
       <c r="S7">
-        <v>0.9953702918044446</v>
+        <v>0.9928554149407159</v>
       </c>
       <c r="T7">
-        <v>0.9950208472270647</v>
+        <v>1.027307232560733</v>
       </c>
       <c r="U7">
-        <v>0.9952763401211533</v>
+        <v>1.021976727295215</v>
       </c>
       <c r="V7">
-        <v>0.9947392273861672</v>
+        <v>1.039449514707914</v>
+      </c>
+      <c r="W7">
+        <v>1.006136841547087</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0.937687505484648</v>
+      </c>
+      <c r="D8">
+        <v>0.9474545031339694</v>
+      </c>
+      <c r="E8">
+        <v>1.046836814617276</v>
+      </c>
+      <c r="F8">
+        <v>0.9992343424477554</v>
+      </c>
+      <c r="G8">
+        <v>0.937687505484648</v>
+      </c>
+      <c r="H8">
+        <v>0.9474545031339694</v>
+      </c>
+      <c r="I8">
+        <v>1.002281434213131</v>
+      </c>
+      <c r="J8">
+        <v>1.022260937895568</v>
+      </c>
+      <c r="K8">
+        <v>0.9821774897346466</v>
+      </c>
+      <c r="L8">
+        <v>0.9860378750226936</v>
+      </c>
+      <c r="M8">
+        <v>0.937397699968407</v>
+      </c>
+      <c r="N8">
+        <v>0.937687505484648</v>
+      </c>
+      <c r="O8">
+        <v>1.046836814617276</v>
+      </c>
+      <c r="P8">
+        <v>0.9971456588756229</v>
+      </c>
+      <c r="Q8">
+        <v>1.023035578532516</v>
+      </c>
+      <c r="R8">
+        <v>0.9773262744119645</v>
+      </c>
+      <c r="S8">
+        <v>0.9978418867330004</v>
+      </c>
+      <c r="T8">
+        <v>0.9773262744119645</v>
+      </c>
+      <c r="U8">
+        <v>0.9828032914209123</v>
+      </c>
+      <c r="V8">
+        <v>0.9737801342336594</v>
+      </c>
+      <c r="W8">
+        <v>0.9904963628187109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>2.13</v>
+      </c>
+      <c r="D9">
+        <v>0.23</v>
+      </c>
+      <c r="E9">
+        <v>0.8</v>
+      </c>
+      <c r="F9">
+        <v>0.83</v>
+      </c>
+      <c r="G9">
+        <v>2.13</v>
+      </c>
+      <c r="H9">
+        <v>0.23</v>
+      </c>
+      <c r="I9">
+        <v>1.2</v>
+      </c>
+      <c r="J9">
+        <v>0.62</v>
+      </c>
+      <c r="K9">
+        <v>1.38</v>
+      </c>
+      <c r="L9">
+        <v>0.46</v>
+      </c>
+      <c r="M9">
+        <v>2.13</v>
+      </c>
+      <c r="N9">
+        <v>2.13</v>
+      </c>
+      <c r="O9">
+        <v>0.8</v>
+      </c>
+      <c r="P9">
+        <v>0.515</v>
+      </c>
+      <c r="Q9">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="R9">
+        <v>1.053333333333333</v>
+      </c>
+      <c r="S9">
+        <v>0.62</v>
+      </c>
+      <c r="T9">
+        <v>1.053333333333333</v>
+      </c>
+      <c r="U9">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="V9">
+        <v>1.224</v>
+      </c>
+      <c r="W9">
+        <v>0.9562499999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>1.73</v>
+      </c>
+      <c r="D10">
+        <v>0.16</v>
+      </c>
+      <c r="E10">
+        <v>1.24</v>
+      </c>
+      <c r="F10">
+        <v>0.73</v>
+      </c>
+      <c r="G10">
+        <v>1.73</v>
+      </c>
+      <c r="H10">
+        <v>0.16</v>
+      </c>
+      <c r="I10">
+        <v>1.35</v>
+      </c>
+      <c r="J10">
+        <v>0.77</v>
+      </c>
+      <c r="K10">
+        <v>1.19</v>
+      </c>
+      <c r="L10">
+        <v>0.39</v>
+      </c>
+      <c r="M10">
+        <v>1.73</v>
+      </c>
+      <c r="N10">
+        <v>1.73</v>
+      </c>
+      <c r="O10">
+        <v>1.24</v>
+      </c>
+      <c r="P10">
+        <v>0.7</v>
+      </c>
+      <c r="Q10">
+        <v>0.985</v>
+      </c>
+      <c r="R10">
+        <v>1.043333333333333</v>
+      </c>
+      <c r="S10">
+        <v>0.71</v>
+      </c>
+      <c r="T10">
+        <v>1.043333333333333</v>
+      </c>
+      <c r="U10">
+        <v>0.965</v>
+      </c>
+      <c r="V10">
+        <v>1.118</v>
+      </c>
+      <c r="W10">
+        <v>0.9450000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0.9957222748069088</v>
+      </c>
+      <c r="D11">
+        <v>0.9949054338936968</v>
+      </c>
+      <c r="E11">
+        <v>0.9940701750686313</v>
+      </c>
+      <c r="F11">
+        <v>0.9943548687886494</v>
+      </c>
+      <c r="G11">
+        <v>0.9957222748069088</v>
+      </c>
+      <c r="H11">
+        <v>0.9949054338936968</v>
+      </c>
+      <c r="I11">
+        <v>0.9942681245895036</v>
+      </c>
+      <c r="J11">
+        <v>0.9952512727169791</v>
+      </c>
+      <c r="K11">
+        <v>0.9951022959888957</v>
+      </c>
+      <c r="L11">
+        <v>0.9933983540018273</v>
+      </c>
+      <c r="M11">
+        <v>0.9956425606184872</v>
+      </c>
+      <c r="N11">
+        <v>0.9957222748069088</v>
+      </c>
+      <c r="O11">
+        <v>0.9940701750686313</v>
+      </c>
+      <c r="P11">
+        <v>0.994487804481164</v>
+      </c>
+      <c r="Q11">
+        <v>0.9942125219286404</v>
+      </c>
+      <c r="R11">
+        <v>0.9948992945897457</v>
+      </c>
+      <c r="S11">
+        <v>0.9944434925836592</v>
+      </c>
+      <c r="T11">
+        <v>0.9948992945897457</v>
+      </c>
+      <c r="U11">
+        <v>0.9947631881394716</v>
+      </c>
+      <c r="V11">
+        <v>0.994955005472959</v>
+      </c>
+      <c r="W11">
+        <v>0.9946340999818866</v>
       </c>
     </row>
   </sheetData>
